--- a/qry-cubo-análisis-multidimensional.xlsx
+++ b/qry-cubo-análisis-multidimensional.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos Usuarios\fernandezmh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FERNANDEZMH\source\repos\2022-1-Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5D55B4C-8AEF-4D36-ABBE-2A0964EC5C8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65CC168-A0B6-4F48-99AE-5E1D88E1E71E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{AB426072-3EA5-4307-9841-37B49C6420E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{AB426072-3EA5-4307-9841-37B49C6420E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="175" r:id="rId2"/>
+    <pivotCache cacheId="260" r:id="rId3"/>
+    <pivotCache cacheId="326" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,11 +44,45 @@
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=AdventureWorksLT_OLAP;Data Source=(local);MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="DW Adventure Works LT" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
+  <connection id="2" xr16:uid="{5650EDB8-42C4-4247-BA6A-EBA30270B7F6}" odcFile="D:\Documentos Usuarios\fernandezmh\Documents\My Data Sources\(local) AdventureWorksLT_OLAP DW Adventure Works LT.odc" keepAlive="1" name="(local) AdventureWorksLT_OLAP DW Adventure Works LT1" type="5" refreshedVersion="6" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=AdventureWorksLT_OLAP;Data Source=(local);MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="DW Adventure Works LT" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <metadataStrings count="4">
+    <s v="(local) AdventureWorksLT_OLAP DW Adventure Works LT"/>
+    <s v="{[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year].&amp;[2011-07-01T00:00:00]}"/>
+    <s v="(local) AdventureWorksLT_OLAP DW Adventure Works LT1"/>
+    <s v="{[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester].&amp;[2014-05-01T00:00:00]}"/>
+  </metadataStrings>
+  <mdxMetadata count="2">
+    <mdx n="0" f="s">
+      <ms ns="1" c="0"/>
+    </mdx>
+    <mdx n="2" f="s">
+      <ms ns="3" c="0"/>
+    </mdx>
+  </mdxMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Row Labels</t>
   </si>
@@ -57,42 +93,6 @@
     <t/>
   </si>
   <si>
-    <t>Classic Vest, M</t>
-  </si>
-  <si>
-    <t>Classic Vest, S</t>
-  </si>
-  <si>
-    <t>HL Touring Frame - Blue, 50</t>
-  </si>
-  <si>
-    <t>HL Touring Frame - Blue, 54</t>
-  </si>
-  <si>
-    <t>HL Touring Frame - Blue, 60</t>
-  </si>
-  <si>
-    <t>LL Touring Frame - Blue, 50</t>
-  </si>
-  <si>
-    <t>LL Touring Frame - Blue, 54</t>
-  </si>
-  <si>
-    <t>Sport-100 Helmet, Blue</t>
-  </si>
-  <si>
-    <t>Touring-1000 Blue, 46</t>
-  </si>
-  <si>
-    <t>Touring-1000 Blue, 50</t>
-  </si>
-  <si>
-    <t>Touring-1000 Blue, 54</t>
-  </si>
-  <si>
-    <t>Touring-1000 Blue, 60</t>
-  </si>
-  <si>
     <t>Touring-2000 Blue, 46</t>
   </si>
   <si>
@@ -105,21 +105,6 @@
     <t>Touring-2000 Blue, 60</t>
   </si>
   <si>
-    <t>Touring-3000 Blue, 44</t>
-  </si>
-  <si>
-    <t>Touring-3000 Blue, 50</t>
-  </si>
-  <si>
-    <t>Touring-3000 Blue, 54</t>
-  </si>
-  <si>
-    <t>Touring-3000 Blue, 58</t>
-  </si>
-  <si>
-    <t>Touring-3000 Blue, 62</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -145,6 +130,84 @@
   </si>
   <si>
     <t>Order Qty</t>
+  </si>
+  <si>
+    <t>Fact Sales Order Header Count</t>
+  </si>
+  <si>
+    <t>adventure-works\jillian0</t>
+  </si>
+  <si>
+    <t>adventure-works\david8</t>
+  </si>
+  <si>
+    <t>adventure-works\garrett1</t>
+  </si>
+  <si>
+    <t>adventure-works\josé1</t>
+  </si>
+  <si>
+    <t>adventure-works\linda3</t>
+  </si>
+  <si>
+    <t>adventure-works\michael9</t>
+  </si>
+  <si>
+    <t>adventure-works\pamela0</t>
+  </si>
+  <si>
+    <t>adventure-works\shu0</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Year -  Half Year -  Quarter -  Month -  Ten Days -  Date</t>
+  </si>
+  <si>
+    <t>Semester 2, 2011</t>
+  </si>
+  <si>
+    <t>Year -  Trimester -  Month -  Ten Days -  Date</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Bikes</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Touring-1000</t>
+  </si>
+  <si>
+    <t>Touring-2000</t>
+  </si>
+  <si>
+    <t>Touring-3000</t>
+  </si>
+  <si>
+    <t>Trimester 2, 2014</t>
   </si>
 </sst>
 </file>
@@ -180,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -189,6 +252,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -208,50 +277,139 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="FERNANDEZ MENDEZ HECTOR" refreshedDate="44604.439335532406" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{739DE310-0D2F-467D-8E6E-BB4D80950B41}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="FERNANDEZ MENDEZ HECTOR" refreshedDate="44611.435174652775" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{739DE310-0D2F-467D-8E6E-BB4D80950B41}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Dim Product].[Color].[Color]" caption="Color" numFmtId="0" hierarchy="12" level="1">
-      <sharedItems count="9">
-        <s v="[Dim Product].[Color].&amp;[]" c=""/>
-        <s v="[Dim Product].[Color].&amp;[Black]" c="Black"/>
-        <s v="[Dim Product].[Color].&amp;[Blue]" c="Blue"/>
-        <s v="[Dim Product].[Color].&amp;[Multi]" c="Multi"/>
-        <s v="[Dim Product].[Color].&amp;[Red]" c="Red"/>
-        <s v="[Dim Product].[Color].&amp;[Silver]" c="Silver"/>
-        <s v="[Dim Product].[Color].&amp;[Silver/Black]" c="Silver/Black"/>
-        <s v="[Dim Product].[Color].&amp;[White]" c="White"/>
-        <s v="[Dim Product].[Color].&amp;[Yellow]" c="Yellow"/>
+  <cacheFields count="39">
+    <cacheField name="[Measures].[Fact Sales Order Header Count]" caption="Fact Sales Order Header Count" numFmtId="0" hierarchy="86" level="32767"/>
+    <cacheField name="[Dim Customer].[Hierarchy 2].[Sales Person]" caption="Sales Person" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="8">
+        <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\david8]" c="adventure-works\david8"/>
+        <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\garrett1]" c="adventure-works\garrett1"/>
+        <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\jillian0]" c="adventure-works\jillian0"/>
+        <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\josé1]" c="adventure-works\josé1"/>
+        <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\linda3]" c="adventure-works\linda3"/>
+        <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\michael9]" c="adventure-works\michael9"/>
+        <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\pamela0]" c="adventure-works\pamela0"/>
+        <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\shu0]" c="adventure-works\shu0"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Dim Product].[Name].[Name]" caption="Name" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="21">
-        <s v="[Dim Product].[Name].&amp;[Classic Vest, M]" c="Classic Vest, M"/>
-        <s v="[Dim Product].[Name].&amp;[Classic Vest, S]" c="Classic Vest, S"/>
-        <s v="[Dim Product].[Name].&amp;[HL Touring Frame - Blue, 50]" c="HL Touring Frame - Blue, 50"/>
-        <s v="[Dim Product].[Name].&amp;[HL Touring Frame - Blue, 54]" c="HL Touring Frame - Blue, 54"/>
-        <s v="[Dim Product].[Name].&amp;[HL Touring Frame - Blue, 60]" c="HL Touring Frame - Blue, 60"/>
-        <s v="[Dim Product].[Name].&amp;[LL Touring Frame - Blue, 50]" c="LL Touring Frame - Blue, 50"/>
-        <s v="[Dim Product].[Name].&amp;[LL Touring Frame - Blue, 54]" c="LL Touring Frame - Blue, 54"/>
-        <s v="[Dim Product].[Name].&amp;[Sport-100 Helmet, Blue]" c="Sport-100 Helmet, Blue"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-1000 Blue, 46]" c="Touring-1000 Blue, 46"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-1000 Blue, 50]" c="Touring-1000 Blue, 50"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-1000 Blue, 54]" c="Touring-1000 Blue, 54"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-1000 Blue, 60]" c="Touring-1000 Blue, 60"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-2000 Blue, 46]" c="Touring-2000 Blue, 46"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-2000 Blue, 50]" c="Touring-2000 Blue, 50"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-2000 Blue, 54]" c="Touring-2000 Blue, 54"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-2000 Blue, 60]" c="Touring-2000 Blue, 60"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-3000 Blue, 44]" c="Touring-3000 Blue, 44"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-3000 Blue, 50]" c="Touring-3000 Blue, 50"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-3000 Blue, 54]" c="Touring-3000 Blue, 54"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-3000 Blue, 58]" c="Touring-3000 Blue, 58"/>
-        <s v="[Dim Product].[Name].&amp;[Touring-3000 Blue, 62]" c="Touring-3000 Blue, 62"/>
+    <cacheField name="[Dim Customer].[Hierarchy 2].[Company Name]" caption="Company Name" numFmtId="0" hierarchy="8" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Fact Sales Order Header].[Online Order Flag].[Online Order Flag]" caption="Online Order Flag" numFmtId="0" hierarchy="54" level="1">
+      <sharedItems count="1">
+        <s v="[Fact Sales Order Header].[Online Order Flag].&amp;[False]" c="False"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Order Qty]" caption="Order Qty" numFmtId="0" hierarchy="79" level="32767"/>
+    <cacheField name="[Fact Sales Order Header].[Status].[Status]" caption="Status" numFmtId="0" hierarchy="58" level="1">
+      <sharedItems count="1">
+        <s v="[Fact Sales Order Header].[Status].&amp;[5]" c="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Year]" caption="Year" numFmtId="0" hierarchy="48" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year]" caption="Half Year" numFmtId="0" hierarchy="48" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter]" caption="Quarter" numFmtId="0" hierarchy="48" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month]" caption="Month" numFmtId="0" hierarchy="48" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days]" caption="Ten Days" numFmtId="0" hierarchy="48" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date]" caption="Date" numFmtId="0" hierarchy="48" level="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year].[Year]" caption="Year" propertyName="Year" numFmtId="0" hierarchy="48" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter].[Half Year]" caption="Half Year" propertyName="Half Year" numFmtId="0" hierarchy="48" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter].[Half Year Of Year]" caption="Half Year Of Year" propertyName="Half Year Of Year" numFmtId="0" hierarchy="48" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter]" caption="Quarter" propertyName="Quarter" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter Of Half Year]" caption="Quarter Of Half Year" propertyName="Quarter Of Half Year" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter Of Year]" caption="Quarter Of Year" propertyName="Quarter Of Year" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Trimester]" caption="Trimester" propertyName="Trimester" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Trimester Of Year]" caption="Trimester Of Year" propertyName="Trimester Of Year" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month]" caption="Month" propertyName="Month" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Half Year]" caption="Month Of Half Year" propertyName="Month Of Half Year" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Quarter]" caption="Month Of Quarter" propertyName="Month Of Quarter" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Trimester]" caption="Month Of Trimester" propertyName="Month Of Trimester" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Year]" caption="Month Of Year" propertyName="Month Of Year" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Half Year]" caption="Day Of Half Year" propertyName="Day Of Half Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Month]" caption="Day Of Month" propertyName="Day Of Month" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Quarter]" caption="Day Of Quarter" propertyName="Day Of Quarter" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Ten Days]" caption="Day Of Ten Days" propertyName="Day Of Ten Days" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Trimester]" caption="Day Of Trimester" propertyName="Day Of Trimester" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Week]" caption="Day Of Week" propertyName="Day Of Week" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Year]" caption="Day Of Year" propertyName="Day Of Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days]" caption="Ten Days" propertyName="Ten Days" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" propertyName="Ten Days Of Half Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Month]" caption="Ten Days Of Month" propertyName="Ten Days Of Month" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" propertyName="Ten Days Of Quarter" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" propertyName="Ten Days Of Trimester" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Year]" caption="Ten Days Of Year" propertyName="Ten Days Of Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Week]" caption="Week" propertyName="Week" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Week Of Year]" caption="Week Of Year" propertyName="Week Of Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="89">
+  <cacheHierarchies count="87">
     <cacheHierarchy uniqueName="[Bill To Address].[Address ID]" caption="Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Bill To Address].[Address ID].[All]" allUniqueName="[Bill To Address].[Address ID].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Bill To Address].[City]" caption="Bill To Address.City" attribute="1" defaultMemberUniqueName="[Bill To Address].[City].[All]" allUniqueName="[Bill To Address].[City].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Bill To Address].[Country Region]" caption="Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Bill To Address].[Country Region].[All]" allUniqueName="[Bill To Address].[Country Region].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
@@ -260,25 +418,19 @@
     <cacheHierarchy uniqueName="[Dim Customer].[Company Name]" caption="Company Name" attribute="1" defaultMemberUniqueName="[Dim Customer].[Company Name].[All]" allUniqueName="[Dim Customer].[Company Name].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Customer].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer].[Customer ID].[All]" allUniqueName="[Dim Customer].[Customer ID].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Customer].[Full Name]" caption="Full Name" attribute="1" defaultMemberUniqueName="[Dim Customer].[Full Name].[All]" allUniqueName="[Dim Customer].[Full Name].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Customer].[Hierarchy].[All]" allUniqueName="[Dim Customer].[Hierarchy].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Dim Customer].[Hierarchy 1].[All]" allUniqueName="[Dim Customer].[Hierarchy 1].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Customer].[Hierarchy 2].[All]" allUniqueName="[Dim Customer].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="4" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[Dim Customer].[Sales Person].[All]" allUniqueName="[Dim Customer].[Sales Person].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[Dim Product].[Color].[All]" allUniqueName="[Dim Product].[Color].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
+    <cacheHierarchy uniqueName="[Dim Customer].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Customer].[Hierarchy 2].[All]" allUniqueName="[Dim Customer].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="3" unbalanced="0">
+      <fieldsUsage count="3">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[Dim Customer].[Sales Person].[All]" allUniqueName="[Dim Customer].[Sales Person].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[Dim Product].[Color].[All]" allUniqueName="[Dim Product].[Color].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Dim Product].[Hierarchy 1].[All]" allUniqueName="[Dim Product].[Hierarchy 1].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Product].[Hierarchy 2].[All]" allUniqueName="[Dim Product].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Name].[All]" allUniqueName="[Dim Product].[Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Name].[All]" allUniqueName="[Dim Product].[Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Parent Product Category Name]" caption="Parent Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Parent Product Category Name].[All]" allUniqueName="[Dim Product].[Parent Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Product Category Name]" caption="Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Category Name].[All]" allUniqueName="[Dim Product].[Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product ID].[All]" allUniqueName="[Dim Product].[Product ID].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
@@ -312,17 +464,346 @@
     <cacheHierarchy uniqueName="[Dim Time].[Week]" caption="Week" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Week].[All]" allUniqueName="[Dim Time].[Week].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Time].[Week Of Year]" caption="Week Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Week Of Year].[All]" allUniqueName="[Dim Time].[Week Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Time].[Year]" caption="Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Year].[All]" allUniqueName="[Dim Time].[Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date]" caption="Year -  Half Year -  Quarter -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date]" caption="Year -  Half Year -  Quarter -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="7" unbalanced="0">
+      <fieldsUsage count="7">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="5"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
+        <fieldUsage x="8"/>
+        <fieldUsage x="9"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date]" caption="Year -  Trimester -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Time].[Year -  Week -  Date]" caption="Year -  Week -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Week -  Date].[All]" allUniqueName="[Dim Time].[Year -  Week -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="4" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Online Order Flag]" caption="Online Order Flag" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" allUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Online Order Flag]" caption="Online Order Flag" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" allUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Fact Sales Order Header].[Order Date]" caption="Order Date" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Order Date].[All]" allUniqueName="[Fact Sales Order Header].[Order Date].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Fact Sales Order Header].[Sales Order ID]" caption="Sales Order ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Sales Order ID].[All]" allUniqueName="[Fact Sales Order Header].[Sales Order ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship Method]" caption="Ship Method" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship Method].[All]" allUniqueName="[Fact Sales Order Header].[Ship Method].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Status].[All]" allUniqueName="[Fact Sales Order Header].[Status].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship Method]" caption="Ship Method" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship Method].[All]" allUniqueName="[Fact Sales Order Header].[Ship Method].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Status].[All]" allUniqueName="[Fact Sales Order Header].[Status].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Address ID]" caption="Fact Sales Order Header - Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Address ID].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[City]" caption="Fact Sales Order Header - Bill To Address.City" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[City].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[City].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Country Region]" caption="Fact Sales Order Header - Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Country Region].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Country Region].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy]" caption="Fact Sales Order Header - Bill To Address.Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[State Province]" caption="Fact Sales Order Header - Bill To Address.State Province" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[State Province].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[State Province].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Address ID]" caption="Fact Sales Order Header - Ship To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Address ID].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[City]" caption="Fact Sales Order Header - Ship To Address.City" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[City].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[City].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Country Region]" caption="Fact Sales Order Header - Ship To Address.Country Region" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Country Region].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Country Region].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy]" caption="Fact Sales Order Header - Ship To Address.Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[State Province]" caption="Fact Sales Order Header - Ship To Address.State Province" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[State Province].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[State Province].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[Address ID]" caption="Ship To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Ship To Address].[Address ID].[All]" allUniqueName="[Ship To Address].[Address ID].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[City]" caption="Ship To Address.City" attribute="1" defaultMemberUniqueName="[Ship To Address].[City].[All]" allUniqueName="[Ship To Address].[City].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[Country Region]" caption="Ship To Address.Country Region" attribute="1" defaultMemberUniqueName="[Ship To Address].[Country Region].[All]" allUniqueName="[Ship To Address].[Country Region].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[Hierarchy]" caption="Ship To Address.Hierarchy" defaultMemberUniqueName="[Ship To Address].[Hierarchy].[All]" allUniqueName="[Ship To Address].[Hierarchy].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[State Province]" caption="Ship To Address.State Province" attribute="1" defaultMemberUniqueName="[Ship To Address].[State Province].[All]" allUniqueName="[Ship To Address].[State Province].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Bill To Address ID]" caption="Bill To Address ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Bill To Address ID].[All]" allUniqueName="[Fact Sales Order Header].[Bill To Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Customer ID].[All]" allUniqueName="[Fact Sales Order Header].[Customer ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship To Address ID]" caption="Ship To Address ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship To Address ID].[All]" allUniqueName="[Fact Sales Order Header].[Ship To Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unit Price]" caption="Unit Price" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unit Price Discount]" caption="Unit Price Discount" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fact Sales Order Detail Count]" caption="Fact Sales Order Detail Count" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sub Total]" caption="Sub Total" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Tax Amt]" caption="Tax Amt" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Freight]" caption="Freight" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Due]" caption="Total Due" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fact Sales Order Header Count]" caption="Fact Sales Order Header Count" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Bill To Address" uniqueName="[Bill To Address]" caption="Bill To Address"/>
+    <dimension name="Dim Customer" uniqueName="[Dim Customer]" caption="Dim Customer"/>
+    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
+    <dimension name="Dim Time" uniqueName="[Dim Time]" caption="Dim Time"/>
+    <dimension name="Fact Sales Order Header" uniqueName="[Fact Sales Order Header]" caption="Fact Sales Order Header"/>
+    <dimension name="Fact Sales Order Header - Bill To Address" uniqueName="[Fact Sales Order Header - Bill To Address]" caption="Fact Sales Order Header - Bill To Address"/>
+    <dimension name="Fact Sales Order Header - Ship To Address" uniqueName="[Fact Sales Order Header - Ship To Address]" caption="Fact Sales Order Header - Ship To Address"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Ship To Address" uniqueName="[Ship To Address]" caption="Ship To Address"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Fact Sales Order Detail" caption="Fact Sales Order Detail"/>
+    <measureGroup name="Fact Sales Order Header" caption="Fact Sales Order Header"/>
+  </measureGroups>
+  <maps count="13">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="4"/>
+    <map measureGroup="1" dimension="8"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="FERNANDEZ MENDEZ HECTOR" refreshedDate="44611.438538425929" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3333F28C-3842-4000-AF40-3F7B906893C9}">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="39">
+    <cacheField name="[Bill To Address].[Hierarchy].[Country Region]" caption="Country Region" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="3">
+        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada]" c="Canada"/>
+        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[United Kingdom]" c="United Kingdom"/>
+        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[United States]" c="United States"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Bill To Address].[Hierarchy].[State Province]" caption="State Province" numFmtId="0" hierarchy="3" level="2">
+      <sharedItems count="4">
+        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada].&amp;[Alberta]" c="Alberta"/>
+        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada].&amp;[British Columbia]" c="British Columbia"/>
+        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada].&amp;[Ontario]" c="Ontario"/>
+        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada].&amp;[Quebec]" c="Quebec"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Bill To Address].[Hierarchy].[City]" caption="City" numFmtId="0" hierarchy="3" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Order Qty]" caption="Order Qty" numFmtId="0" hierarchy="77" level="32767"/>
+    <cacheField name="[Dim Product].[Hierarchy 2].[Color]" caption="Color" numFmtId="0" hierarchy="13" level="1">
+      <sharedItems count="9">
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[]" c=""/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Black]" c="Black"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue]" c="Blue"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Multi]" c="Multi"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Red]" c="Red"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Silver]" c="Silver"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Silver/Black]" c="Silver/Black"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[White]" c="White"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Yellow]" c="Yellow"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 2].[Parent Product Category Name]" caption="Parent Product Category Name" numFmtId="0" hierarchy="13" level="2">
+      <sharedItems count="4">
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Accessories]" c="Accessories"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes]" c="Bikes"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Clothing]" c="Clothing"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Components]" c="Components"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 2].[Product Model Name]" caption="Product Model Name" numFmtId="0" hierarchy="13" level="3">
+      <sharedItems count="3">
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-1000]" c="Touring-1000"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000]" c="Touring-2000"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-3000]" c="Touring-3000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 2].[Name]" caption="Name" numFmtId="0" hierarchy="13" level="4">
+      <sharedItems count="4">
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 46]" c="Touring-2000 Blue, 46"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 50]" c="Touring-2000 Blue, 50"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 54]" c="Touring-2000 Blue, 54"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 60]" c="Touring-2000 Blue, 60"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Year]" caption="Year" numFmtId="0" hierarchy="49" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester]" caption="Trimester" numFmtId="0" hierarchy="49" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month]" caption="Month" numFmtId="0" hierarchy="49" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days]" caption="Ten Days" numFmtId="0" hierarchy="49" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date]" caption="Date" numFmtId="0" hierarchy="49" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester].[Year]" caption="Year" propertyName="Year" numFmtId="0" hierarchy="49" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter]" caption="Quarter" propertyName="Quarter" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter Of Half Year]" caption="Quarter Of Half Year" propertyName="Quarter Of Half Year" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter Of Year]" caption="Quarter Of Year" propertyName="Quarter Of Year" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Trimester]" caption="Trimester" propertyName="Trimester" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Trimester Of Year]" caption="Trimester Of Year" propertyName="Trimester Of Year" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month]" caption="Month" propertyName="Month" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Half Year]" caption="Month Of Half Year" propertyName="Month Of Half Year" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Quarter]" caption="Month Of Quarter" propertyName="Month Of Quarter" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Trimester]" caption="Month Of Trimester" propertyName="Month Of Trimester" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Year]" caption="Month Of Year" propertyName="Month Of Year" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Half Year]" caption="Day Of Half Year" propertyName="Day Of Half Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Month]" caption="Day Of Month" propertyName="Day Of Month" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Quarter]" caption="Day Of Quarter" propertyName="Day Of Quarter" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Ten Days]" caption="Day Of Ten Days" propertyName="Day Of Ten Days" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Trimester]" caption="Day Of Trimester" propertyName="Day Of Trimester" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Week]" caption="Day Of Week" propertyName="Day Of Week" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Year]" caption="Day Of Year" propertyName="Day Of Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days]" caption="Ten Days" propertyName="Ten Days" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" propertyName="Ten Days Of Half Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Month]" caption="Ten Days Of Month" propertyName="Ten Days Of Month" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" propertyName="Ten Days Of Quarter" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" propertyName="Ten Days Of Trimester" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Year]" caption="Ten Days Of Year" propertyName="Ten Days Of Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Week]" caption="Week" propertyName="Week" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Week Of Year]" caption="Week Of Year" propertyName="Week Of Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="87">
+    <cacheHierarchy uniqueName="[Bill To Address].[Address ID]" caption="Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Bill To Address].[Address ID].[All]" allUniqueName="[Bill To Address].[Address ID].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Bill To Address].[City]" caption="Bill To Address.City" attribute="1" defaultMemberUniqueName="[Bill To Address].[City].[All]" allUniqueName="[Bill To Address].[City].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Bill To Address].[Country Region]" caption="Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Bill To Address].[Country Region].[All]" allUniqueName="[Bill To Address].[Country Region].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Bill To Address].[Hierarchy]" caption="Bill To Address.Hierarchy" defaultMemberUniqueName="[Bill To Address].[Hierarchy].[All]" allUniqueName="[Bill To Address].[Hierarchy].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Bill To Address].[State Province]" caption="Bill To Address.State Province" attribute="1" defaultMemberUniqueName="[Bill To Address].[State Province].[All]" allUniqueName="[Bill To Address].[State Province].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Company Name]" caption="Company Name" attribute="1" defaultMemberUniqueName="[Dim Customer].[Company Name].[All]" allUniqueName="[Dim Customer].[Company Name].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer].[Customer ID].[All]" allUniqueName="[Dim Customer].[Customer ID].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Full Name]" caption="Full Name" attribute="1" defaultMemberUniqueName="[Dim Customer].[Full Name].[All]" allUniqueName="[Dim Customer].[Full Name].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Customer].[Hierarchy 2].[All]" allUniqueName="[Dim Customer].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[Dim Customer].[Sales Person].[All]" allUniqueName="[Dim Customer].[Sales Person].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[Dim Product].[Color].[All]" allUniqueName="[Dim Product].[Color].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Dim Product].[Hierarchy 1].[All]" allUniqueName="[Dim Product].[Hierarchy 1].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Product].[Hierarchy 2].[All]" allUniqueName="[Dim Product].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Name].[All]" allUniqueName="[Dim Product].[Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Parent Product Category Name]" caption="Parent Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Parent Product Category Name].[All]" allUniqueName="[Dim Product].[Parent Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Category Name]" caption="Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Category Name].[All]" allUniqueName="[Dim Product].[Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product ID].[All]" allUniqueName="[Dim Product].[Product ID].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Model Name]" caption="Product Model Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Model Name].[All]" allUniqueName="[Dim Product].[Product Model Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Date]" caption="Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Dim Time].[Date].[All]" allUniqueName="[Dim Time].[Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Half Year]" caption="Day Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Half Year].[All]" allUniqueName="[Dim Time].[Day Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Month]" caption="Day Of Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Month].[All]" allUniqueName="[Dim Time].[Day Of Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Quarter]" caption="Day Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Quarter].[All]" allUniqueName="[Dim Time].[Day Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Ten Days]" caption="Day Of Ten Days" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Ten Days].[All]" allUniqueName="[Dim Time].[Day Of Ten Days].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Trimester]" caption="Day Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Trimester].[All]" allUniqueName="[Dim Time].[Day Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Week]" caption="Day Of Week" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Week].[All]" allUniqueName="[Dim Time].[Day Of Week].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Year]" caption="Day Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Year].[All]" allUniqueName="[Dim Time].[Day Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Half Year]" caption="Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Half Year].[All]" allUniqueName="[Dim Time].[Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Half Year Of Year]" caption="Half Year Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Half Year Of Year].[All]" allUniqueName="[Dim Time].[Half Year Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month]" caption="Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month].[All]" allUniqueName="[Dim Time].[Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month Of Half Year]" caption="Month Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Half Year].[All]" allUniqueName="[Dim Time].[Month Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month Of Quarter]" caption="Month Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Quarter].[All]" allUniqueName="[Dim Time].[Month Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month Of Trimester]" caption="Month Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Trimester].[All]" allUniqueName="[Dim Time].[Month Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month Of Year]" caption="Month Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Year].[All]" allUniqueName="[Dim Time].[Month Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Quarter]" caption="Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter].[All]" allUniqueName="[Dim Time].[Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Quarter Of Half Year]" caption="Quarter Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter Of Half Year].[All]" allUniqueName="[Dim Time].[Quarter Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Quarter Of Year]" caption="Quarter Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter Of Year].[All]" allUniqueName="[Dim Time].[Quarter Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days]" caption="Ten Days" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days].[All]" allUniqueName="[Dim Time].[Ten Days].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Half Year].[All]" allUniqueName="[Dim Time].[Ten Days Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Month]" caption="Ten Days Of Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Month].[All]" allUniqueName="[Dim Time].[Ten Days Of Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Quarter].[All]" allUniqueName="[Dim Time].[Ten Days Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Trimester].[All]" allUniqueName="[Dim Time].[Ten Days Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Year]" caption="Ten Days Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Year].[All]" allUniqueName="[Dim Time].[Ten Days Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Trimester]" caption="Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Trimester].[All]" allUniqueName="[Dim Time].[Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Trimester Of Year]" caption="Trimester Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Trimester Of Year].[All]" allUniqueName="[Dim Time].[Trimester Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Week]" caption="Week" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Week].[All]" allUniqueName="[Dim Time].[Week].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Week Of Year]" caption="Week Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Week Of Year].[All]" allUniqueName="[Dim Time].[Week Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Year]" caption="Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Year].[All]" allUniqueName="[Dim Time].[Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date]" caption="Year -  Half Year -  Quarter -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date]" caption="Year -  Trimester -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="8"/>
+        <fieldUsage x="9"/>
+        <fieldUsage x="10"/>
+        <fieldUsage x="11"/>
+        <fieldUsage x="12"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Time].[Year -  Week -  Date]" caption="Year -  Week -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Week -  Date].[All]" allUniqueName="[Dim Time].[Year -  Week -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Online Order Flag]" caption="Online Order Flag" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" allUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Order Date]" caption="Order Date" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Order Date].[All]" allUniqueName="[Fact Sales Order Header].[Order Date].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Sales Order ID]" caption="Sales Order ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Sales Order ID].[All]" allUniqueName="[Fact Sales Order Header].[Sales Order ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship Method]" caption="Ship Method" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship Method].[All]" allUniqueName="[Fact Sales Order Header].[Ship Method].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Status].[All]" allUniqueName="[Fact Sales Order Header].[Status].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Address ID]" caption="Fact Sales Order Header - Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Address ID].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[City]" caption="Fact Sales Order Header - Bill To Address.City" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[City].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[City].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Country Region]" caption="Fact Sales Order Header - Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Country Region].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Country Region].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
@@ -343,7 +824,7 @@
     <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship To Address ID]" caption="Ship To Address ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship To Address ID].[All]" allUniqueName="[Fact Sales Order Header].[Ship To Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Unit Price]" caption="Unit Price" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
@@ -372,12 +853,15 @@
     <measureGroup name="Fact Sales Order Detail" caption="Fact Sales Order Detail"/>
     <measureGroup name="Fact Sales Order Header" caption="Fact Sales Order Header"/>
   </measureGroups>
-  <maps count="10">
+  <maps count="13">
+    <map measureGroup="0" dimension="0"/>
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
     <map measureGroup="0" dimension="4"/>
     <map measureGroup="0" dimension="5"/>
     <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="8"/>
     <map measureGroup="1" dimension="0"/>
     <map measureGroup="1" dimension="1"/>
     <map measureGroup="1" dimension="3"/>
@@ -393,54 +877,72 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F707DBB-AE71-44DF-9E73-7F6F57457DAF}" name="PivotTable1" cacheId="175" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="D3:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="9">
-        <item x="0" e="0"/>
-        <item x="1" e="0"/>
-        <item x="2"/>
-        <item x="3" e="0"/>
-        <item x="4" e="0"/>
-        <item x="5" e="0"/>
-        <item x="6" e="0"/>
-        <item x="7" e="0"/>
-        <item x="8" e="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F707DBB-AE71-44DF-9E73-7F6F57457DAF}" name="PivotTable1" cacheId="260" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="D3:F14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="39">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" hideNewItems="1" dataSourceSort="1" defaultSubtotal="0">
+      <items count="8">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
+        <item c="1" x="4"/>
+        <item c="1" x="5"/>
+        <item c="1" x="6"/>
+        <item c="1" x="7"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="21">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" hideNewItems="1" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
+  <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -450,69 +952,6 @@
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
     <i>
       <x v="3"/>
     </i>
@@ -528,71 +967,110 @@
     <i>
       <x v="7"/>
     </i>
-    <i>
-      <x v="8"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="48" name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year].&amp;[2011-07-01T00:00:00]" cap="Semester 2, 2011"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="89">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="87">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="28">
+        <mp field="11"/>
+        <mp field="12"/>
+        <mp field="13"/>
+        <mp field="14"/>
+        <mp field="15"/>
+        <mp field="16"/>
+        <mp field="17"/>
+        <mp field="18"/>
+        <mp field="19"/>
+        <mp field="20"/>
+        <mp field="21"/>
+        <mp field="22"/>
+        <mp field="23"/>
+        <mp field="24"/>
+        <mp field="25"/>
+        <mp field="26"/>
+        <mp field="27"/>
+        <mp field="28"/>
+        <mp field="29"/>
+        <mp field="30"/>
+        <mp field="31"/>
+        <mp field="32"/>
+        <mp field="33"/>
+        <mp field="34"/>
+        <mp field="35"/>
+        <mp field="36"/>
+        <mp field="37"/>
+        <mp field="38"/>
+      </mps>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -633,10 +1111,332 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="12"/>
-    <rowHierarchyUsage hierarchyUsage="16"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
   </rowHierarchiesUsage>
+  <colHierarchiesUsage count="2">
+    <colHierarchyUsage hierarchyUsage="54"/>
+    <colHierarchyUsage hierarchyUsage="58"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CF3CA0F-072C-41E0-895B-51371BB6E34F}" name="PivotTable1" cacheId="326" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="D5:H27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="39">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="3">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="4">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3" d="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="9">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2" d="1"/>
+        <item c="1" x="3"/>
+        <item c="1" x="4"/>
+        <item c="1" x="5"/>
+        <item c="1" x="6"/>
+        <item c="1" x="7"/>
+        <item c="1" x="8"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="4">
+        <item c="1" x="0"/>
+        <item c="1" x="1" d="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="3">
+        <item c="1" x="0"/>
+        <item c="1" x="1" d="1"/>
+        <item c="1" x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="4"/>
+    <field x="5"/>
+    <field x="6"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="8" hier="49" name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester].&amp;[2014-05-01T00:00:00]" cap="Trimester 2, 2014"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="87">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="26">
+        <mp field="13"/>
+        <mp field="14"/>
+        <mp field="15"/>
+        <mp field="16"/>
+        <mp field="17"/>
+        <mp field="18"/>
+        <mp field="19"/>
+        <mp field="20"/>
+        <mp field="21"/>
+        <mp field="22"/>
+        <mp field="23"/>
+        <mp field="24"/>
+        <mp field="25"/>
+        <mp field="26"/>
+        <mp field="27"/>
+        <mp field="28"/>
+        <mp field="29"/>
+        <mp field="30"/>
+        <mp field="31"/>
+        <mp field="32"/>
+        <mp field="33"/>
+        <mp field="34"/>
+        <mp field="35"/>
+        <mp field="36"/>
+        <mp field="37"/>
+        <mp field="38"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="3"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -945,276 +1745,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621FE5B1-98BD-4D55-AAE8-B5FAC82BB368}">
-  <dimension ref="D3:E34"/>
+  <dimension ref="D1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" vm="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="E13" s="1">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="1">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="1">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2087</v>
+        <v>268</v>
+      </c>
+      <c r="F14" s="1">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FF3425-DC3E-465E-886D-6E518F83569D}">
+  <dimension ref="D3:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="55" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="62" max="65" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="66" max="69" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="11" bestFit="1" customWidth="1"/>
+    <col min="77" max="81" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="82" max="86" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="93" max="98" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="99" max="104" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="11" bestFit="1" customWidth="1"/>
+    <col min="111" max="115" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="116" max="120" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="20" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="24" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="11" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="137" max="138" width="11" bestFit="1" customWidth="1"/>
+    <col min="139" max="142" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="143" max="146" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="157" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="162" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="175" max="178" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="179" max="182" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="183" max="185" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="186" max="188" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="189" max="192" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="193" max="196" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="197" max="201" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="202" max="206" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="11" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="214" max="218" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="219" max="222" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="223" max="226" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="227" max="230" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="231" max="235" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="236" max="240" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="241" max="246" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="247" max="252" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="253" max="256" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="25" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="11" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="270" max="273" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="274" max="277" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="278" max="286" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="287" max="291" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" vm="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>241</v>
+      </c>
+      <c r="F7" s="1">
+        <v>152</v>
+      </c>
+      <c r="G7" s="1">
+        <v>463</v>
+      </c>
+      <c r="H7" s="1">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>492</v>
+      </c>
+      <c r="F8" s="1">
+        <v>306</v>
+      </c>
+      <c r="G8" s="1">
+        <v>903</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1">
+        <v>98</v>
+      </c>
+      <c r="H12" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1">
+        <v>88</v>
+      </c>
+      <c r="H18" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1">
+        <v>125</v>
+      </c>
+      <c r="F19" s="1">
+        <v>67</v>
+      </c>
+      <c r="G19" s="1">
+        <v>157</v>
+      </c>
+      <c r="H19" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>68</v>
+      </c>
+      <c r="H20" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>120</v>
+      </c>
+      <c r="F21" s="1">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1">
+        <v>180</v>
+      </c>
+      <c r="H21" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1">
+        <v>57</v>
+      </c>
+      <c r="H22" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>282</v>
+      </c>
+      <c r="F23" s="1">
+        <v>172</v>
+      </c>
+      <c r="G23" s="1">
+        <v>697</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1">
+        <v>47</v>
+      </c>
+      <c r="G24" s="1">
+        <v>172</v>
+      </c>
+      <c r="H24" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1">
+        <v>142</v>
+      </c>
+      <c r="H25" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1">
+        <v>345</v>
+      </c>
+      <c r="F26" s="1">
+        <v>227</v>
+      </c>
+      <c r="G26" s="1">
+        <v>669</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1172</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3831</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/qry-cubo-análisis-multidimensional.xlsx
+++ b/qry-cubo-análisis-multidimensional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FERNANDEZMH\source\repos\2022-1-Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65CC168-A0B6-4F48-99AE-5E1D88E1E71E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3059803-0ECB-49A8-8694-0A0B8C63D6AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{AB426072-3EA5-4307-9841-37B49C6420E7}"/>
+    <workbookView xWindow="-25320" yWindow="465" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{AB426072-3EA5-4307-9841-37B49C6420E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="260" r:id="rId3"/>
-    <pivotCache cacheId="326" r:id="rId4"/>
+    <pivotCache cacheId="40" r:id="rId3"/>
+    <pivotCache cacheId="43" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Row Labels</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Yellow</t>
   </si>
   <si>
-    <t>Order Qty</t>
-  </si>
-  <si>
     <t>Fact Sales Order Header Count</t>
   </si>
   <si>
@@ -177,15 +174,6 @@
     <t>Year -  Trimester -  Month -  Ten Days -  Date</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Accessories</t>
   </si>
   <si>
@@ -208,6 +196,45 @@
   </si>
   <si>
     <t>Trimester 2, 2014</t>
+  </si>
+  <si>
+    <t>De $0 menos de de $1000</t>
+  </si>
+  <si>
+    <t>De $1001 hasta menos de $2225</t>
+  </si>
+  <si>
+    <t>De $2225 hasta menos de $3197</t>
+  </si>
+  <si>
+    <t>HL Mountain Frame - Black, 38</t>
+  </si>
+  <si>
+    <t>HL Mountain Frame - Black, 42</t>
+  </si>
+  <si>
+    <t>HL Road Frame - Black, 44</t>
+  </si>
+  <si>
+    <t>Mountain-200 Black, 38</t>
+  </si>
+  <si>
+    <t>Mountain-200 Black, 42</t>
+  </si>
+  <si>
+    <t>Mountain-200 Black, 46</t>
+  </si>
+  <si>
+    <t>Road-250 Black, 44</t>
+  </si>
+  <si>
+    <t>Road-250 Black, 48</t>
+  </si>
+  <si>
+    <t>Road-250 Black, 52</t>
+  </si>
+  <si>
+    <t>Road-250 Black, 58</t>
   </si>
 </sst>
 </file>
@@ -243,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -255,9 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -277,10 +301,339 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="FERNANDEZ MENDEZ HECTOR" refreshedDate="44611.435174652775" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{739DE310-0D2F-467D-8E6E-BB4D80950B41}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="FERNANDEZ MENDEZ HECTOR" refreshedDate="44618.461677083331" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3333F28C-3842-4000-AF40-3F7B906893C9}">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="39">
+    <cacheField name="[Dim Product].[Hierarchy 2].[Color]" caption="Color" numFmtId="0" hierarchy="14" level="1">
+      <sharedItems count="9">
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[]" c=""/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Black]" c="Black"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue]" c="Blue"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Multi]" c="Multi"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Red]" c="Red"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Silver]" c="Silver"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Silver/Black]" c="Silver/Black"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[White]" c="White"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Yellow]" c="Yellow"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 2].[Parent Product Category Name]" caption="Parent Product Category Name" numFmtId="0" hierarchy="14" level="2">
+      <sharedItems count="4">
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Accessories]" c="Accessories"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes]" c="Bikes"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Clothing]" c="Clothing"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Components]" c="Components"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 2].[Product Model Name]" caption="Product Model Name" numFmtId="0" hierarchy="14" level="3">
+      <sharedItems count="3">
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-1000]" c="Touring-1000"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000]" c="Touring-2000"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-3000]" c="Touring-3000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 2].[Name]" caption="Name" numFmtId="0" hierarchy="14" level="4">
+      <sharedItems count="4">
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 46]" c="Touring-2000 Blue, 46"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 50]" c="Touring-2000 Blue, 50"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 54]" c="Touring-2000 Blue, 54"/>
+        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 60]" c="Touring-2000 Blue, 60"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Year]" caption="Year" numFmtId="0" hierarchy="51" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester]" caption="Trimester" numFmtId="0" hierarchy="51" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month]" caption="Month" numFmtId="0" hierarchy="51" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days]" caption="Ten Days" numFmtId="0" hierarchy="51" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date]" caption="Date" numFmtId="0" hierarchy="51" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester].[Year]" caption="Year" propertyName="Year" numFmtId="0" hierarchy="51" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter]" caption="Quarter" propertyName="Quarter" numFmtId="0" hierarchy="51" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter Of Half Year]" caption="Quarter Of Half Year" propertyName="Quarter Of Half Year" numFmtId="0" hierarchy="51" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter Of Year]" caption="Quarter Of Year" propertyName="Quarter Of Year" numFmtId="0" hierarchy="51" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Trimester]" caption="Trimester" propertyName="Trimester" numFmtId="0" hierarchy="51" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Trimester Of Year]" caption="Trimester Of Year" propertyName="Trimester Of Year" numFmtId="0" hierarchy="51" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month]" caption="Month" propertyName="Month" numFmtId="0" hierarchy="51" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Half Year]" caption="Month Of Half Year" propertyName="Month Of Half Year" numFmtId="0" hierarchy="51" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Quarter]" caption="Month Of Quarter" propertyName="Month Of Quarter" numFmtId="0" hierarchy="51" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Trimester]" caption="Month Of Trimester" propertyName="Month Of Trimester" numFmtId="0" hierarchy="51" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Year]" caption="Month Of Year" propertyName="Month Of Year" numFmtId="0" hierarchy="51" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Half Year]" caption="Day Of Half Year" propertyName="Day Of Half Year" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Month]" caption="Day Of Month" propertyName="Day Of Month" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Quarter]" caption="Day Of Quarter" propertyName="Day Of Quarter" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Ten Days]" caption="Day Of Ten Days" propertyName="Day Of Ten Days" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Trimester]" caption="Day Of Trimester" propertyName="Day Of Trimester" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Week]" caption="Day Of Week" propertyName="Day Of Week" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Year]" caption="Day Of Year" propertyName="Day Of Year" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days]" caption="Ten Days" propertyName="Ten Days" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" propertyName="Ten Days Of Half Year" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Month]" caption="Ten Days Of Month" propertyName="Ten Days Of Month" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" propertyName="Ten Days Of Quarter" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" propertyName="Ten Days Of Trimester" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Year]" caption="Ten Days Of Year" propertyName="Ten Days Of Year" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Week]" caption="Week" propertyName="Week" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Week Of Year]" caption="Week Of Year" propertyName="Week Of Year" numFmtId="0" hierarchy="51" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 3].[Color]" caption="Color" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems count="9">
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[]" c=""/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black]" c="Black"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Blue]" c="Blue"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Multi]" c="Multi"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Red]" c="Red"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Silver]" c="Silver"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Silver/Black]" c="Silver/Black"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[White]" c="White"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Yellow]" c="Yellow"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 3].[Estratificacion List Price]" caption="Estratificacion List Price" numFmtId="0" hierarchy="15" level="2">
+      <sharedItems count="4">
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[].&amp;[De $0 menos de de $1000]" c="De $0 menos de de $1000"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $0 menos de de $1000]" c="De $0 menos de de $1000"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $1001 hasta menos de $2225]" c="De $1001 hasta menos de $2225"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $2225 hasta menos de $3197]" c="De $2225 hasta menos de $3197"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Product].[Hierarchy 3].[Name]" caption="Name" numFmtId="0" hierarchy="15" level="3">
+      <sharedItems count="10">
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $1001 hasta menos de $2225].&amp;[HL Mountain Frame - Black, 38]" c="HL Mountain Frame - Black, 38"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $1001 hasta menos de $2225].&amp;[HL Mountain Frame - Black, 42]" c="HL Mountain Frame - Black, 42"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $1001 hasta menos de $2225].&amp;[HL Road Frame - Black, 44]" c="HL Road Frame - Black, 44"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $2225 hasta menos de $3197].&amp;[Mountain-200 Black, 38]" c="Mountain-200 Black, 38"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $2225 hasta menos de $3197].&amp;[Mountain-200 Black, 42]" c="Mountain-200 Black, 42"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $2225 hasta menos de $3197].&amp;[Mountain-200 Black, 46]" c="Mountain-200 Black, 46"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $2225 hasta menos de $3197].&amp;[Road-250 Black, 44]" c="Road-250 Black, 44"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $2225 hasta menos de $3197].&amp;[Road-250 Black, 48]" c="Road-250 Black, 48"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $2225 hasta menos de $3197].&amp;[Road-250 Black, 52]" c="Road-250 Black, 52"/>
+        <s v="[Dim Product].[Hierarchy 3].[Color].&amp;[Black].&amp;[De $2225 hasta menos de $3197].&amp;[Road-250 Black, 58]" c="Road-250 Black, 58"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Fact Sales Order Header Count]" caption="Fact Sales Order Header Count" numFmtId="0" hierarchy="88" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="89">
+    <cacheHierarchy uniqueName="[Bill To Address].[Address ID]" caption="Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Bill To Address].[Address ID].[All]" allUniqueName="[Bill To Address].[Address ID].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Bill To Address].[City]" caption="Bill To Address.City" attribute="1" defaultMemberUniqueName="[Bill To Address].[City].[All]" allUniqueName="[Bill To Address].[City].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Bill To Address].[Country Region]" caption="Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Bill To Address].[Country Region].[All]" allUniqueName="[Bill To Address].[Country Region].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Bill To Address].[Hierarchy]" caption="Bill To Address.Hierarchy" defaultMemberUniqueName="[Bill To Address].[Hierarchy].[All]" allUniqueName="[Bill To Address].[Hierarchy].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Bill To Address].[State Province]" caption="Bill To Address.State Province" attribute="1" defaultMemberUniqueName="[Bill To Address].[State Province].[All]" allUniqueName="[Bill To Address].[State Province].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Company Name]" caption="Company Name" attribute="1" defaultMemberUniqueName="[Dim Customer].[Company Name].[All]" allUniqueName="[Dim Customer].[Company Name].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer].[Customer ID].[All]" allUniqueName="[Dim Customer].[Customer ID].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Full Name]" caption="Full Name" attribute="1" defaultMemberUniqueName="[Dim Customer].[Full Name].[All]" allUniqueName="[Dim Customer].[Full Name].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Customer].[Hierarchy 2].[All]" allUniqueName="[Dim Customer].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[Dim Customer].[Sales Person].[All]" allUniqueName="[Dim Customer].[Sales Person].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[Dim Product].[Color].[All]" allUniqueName="[Dim Product].[Color].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Estratificacion List Price]" caption="Estratificacion List Price" attribute="1" defaultMemberUniqueName="[Dim Product].[Estratificacion List Price].[All]" allUniqueName="[Dim Product].[Estratificacion List Price].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Dim Product].[Hierarchy 1].[All]" allUniqueName="[Dim Product].[Hierarchy 1].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Product].[Hierarchy 2].[All]" allUniqueName="[Dim Product].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 3]" caption="Hierarchy 3" defaultMemberUniqueName="[Dim Product].[Hierarchy 3].[All]" allUniqueName="[Dim Product].[Hierarchy 3].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="35"/>
+        <fieldUsage x="36"/>
+        <fieldUsage x="37"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Name].[All]" allUniqueName="[Dim Product].[Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Parent Product Category Name]" caption="Parent Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Parent Product Category Name].[All]" allUniqueName="[Dim Product].[Parent Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Category Name]" caption="Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Category Name].[All]" allUniqueName="[Dim Product].[Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product ID].[All]" allUniqueName="[Dim Product].[Product ID].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Model Name]" caption="Product Model Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Model Name].[All]" allUniqueName="[Dim Product].[Product Model Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Date]" caption="Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Dim Time].[Date].[All]" allUniqueName="[Dim Time].[Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Half Year]" caption="Day Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Half Year].[All]" allUniqueName="[Dim Time].[Day Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Month]" caption="Day Of Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Month].[All]" allUniqueName="[Dim Time].[Day Of Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Quarter]" caption="Day Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Quarter].[All]" allUniqueName="[Dim Time].[Day Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Ten Days]" caption="Day Of Ten Days" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Ten Days].[All]" allUniqueName="[Dim Time].[Day Of Ten Days].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Trimester]" caption="Day Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Trimester].[All]" allUniqueName="[Dim Time].[Day Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Week]" caption="Day Of Week" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Week].[All]" allUniqueName="[Dim Time].[Day Of Week].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Day Of Year]" caption="Day Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Year].[All]" allUniqueName="[Dim Time].[Day Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Half Year]" caption="Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Half Year].[All]" allUniqueName="[Dim Time].[Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Half Year Of Year]" caption="Half Year Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Half Year Of Year].[All]" allUniqueName="[Dim Time].[Half Year Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month]" caption="Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month].[All]" allUniqueName="[Dim Time].[Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month Of Half Year]" caption="Month Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Half Year].[All]" allUniqueName="[Dim Time].[Month Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month Of Quarter]" caption="Month Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Quarter].[All]" allUniqueName="[Dim Time].[Month Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month Of Trimester]" caption="Month Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Trimester].[All]" allUniqueName="[Dim Time].[Month Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Month Of Year]" caption="Month Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Year].[All]" allUniqueName="[Dim Time].[Month Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Quarter]" caption="Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter].[All]" allUniqueName="[Dim Time].[Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Quarter Of Half Year]" caption="Quarter Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter Of Half Year].[All]" allUniqueName="[Dim Time].[Quarter Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Quarter Of Year]" caption="Quarter Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter Of Year].[All]" allUniqueName="[Dim Time].[Quarter Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days]" caption="Ten Days" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days].[All]" allUniqueName="[Dim Time].[Ten Days].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Half Year].[All]" allUniqueName="[Dim Time].[Ten Days Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Month]" caption="Ten Days Of Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Month].[All]" allUniqueName="[Dim Time].[Ten Days Of Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Quarter].[All]" allUniqueName="[Dim Time].[Ten Days Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Trimester].[All]" allUniqueName="[Dim Time].[Ten Days Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Year]" caption="Ten Days Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Year].[All]" allUniqueName="[Dim Time].[Ten Days Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Trimester]" caption="Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Trimester].[All]" allUniqueName="[Dim Time].[Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Trimester Of Year]" caption="Trimester Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Trimester Of Year].[All]" allUniqueName="[Dim Time].[Trimester Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Week]" caption="Week" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Week].[All]" allUniqueName="[Dim Time].[Week].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Week Of Year]" caption="Week Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Week Of Year].[All]" allUniqueName="[Dim Time].[Week Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Year]" caption="Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Year].[All]" allUniqueName="[Dim Time].[Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date]" caption="Year -  Half Year -  Quarter -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date]" caption="Year -  Trimester -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
+        <fieldUsage x="8"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Time].[Year -  Week -  Date]" caption="Year -  Week -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Week -  Date].[All]" allUniqueName="[Dim Time].[Year -  Week -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Online Order Flag]" caption="Online Order Flag" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" allUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Order Date]" caption="Order Date" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Order Date].[All]" allUniqueName="[Fact Sales Order Header].[Order Date].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Sales Order ID]" caption="Sales Order ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Sales Order ID].[All]" allUniqueName="[Fact Sales Order Header].[Sales Order ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship Method]" caption="Ship Method" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship Method].[All]" allUniqueName="[Fact Sales Order Header].[Ship Method].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Status].[All]" allUniqueName="[Fact Sales Order Header].[Status].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Address ID]" caption="Fact Sales Order Header - Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Address ID].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[City]" caption="Fact Sales Order Header - Bill To Address.City" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[City].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[City].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Country Region]" caption="Fact Sales Order Header - Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Country Region].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Country Region].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy]" caption="Fact Sales Order Header - Bill To Address.Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[State Province]" caption="Fact Sales Order Header - Bill To Address.State Province" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[State Province].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[State Province].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Address ID]" caption="Fact Sales Order Header - Ship To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Address ID].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[City]" caption="Fact Sales Order Header - Ship To Address.City" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[City].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[City].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Country Region]" caption="Fact Sales Order Header - Ship To Address.Country Region" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Country Region].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Country Region].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy]" caption="Fact Sales Order Header - Ship To Address.Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[State Province]" caption="Fact Sales Order Header - Ship To Address.State Province" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[State Province].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[State Province].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[Address ID]" caption="Ship To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Ship To Address].[Address ID].[All]" allUniqueName="[Ship To Address].[Address ID].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[City]" caption="Ship To Address.City" attribute="1" defaultMemberUniqueName="[Ship To Address].[City].[All]" allUniqueName="[Ship To Address].[City].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[Country Region]" caption="Ship To Address.Country Region" attribute="1" defaultMemberUniqueName="[Ship To Address].[Country Region].[All]" allUniqueName="[Ship To Address].[Country Region].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[Hierarchy]" caption="Ship To Address.Hierarchy" defaultMemberUniqueName="[Ship To Address].[Hierarchy].[All]" allUniqueName="[Ship To Address].[Hierarchy].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship To Address].[State Province]" caption="Ship To Address.State Province" attribute="1" defaultMemberUniqueName="[Ship To Address].[State Province].[All]" allUniqueName="[Ship To Address].[State Province].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Bill To Address ID]" caption="Bill To Address ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Bill To Address ID].[All]" allUniqueName="[Fact Sales Order Header].[Bill To Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Customer ID].[All]" allUniqueName="[Fact Sales Order Header].[Customer ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship To Address ID]" caption="Ship To Address ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship To Address ID].[All]" allUniqueName="[Fact Sales Order Header].[Ship To Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unit Price]" caption="Unit Price" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unit Price Discount]" caption="Unit Price Discount" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fact Sales Order Detail Count]" caption="Fact Sales Order Detail Count" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sub Total]" caption="Sub Total" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Tax Amt]" caption="Tax Amt" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Freight]" caption="Freight" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Due]" caption="Total Due" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fact Sales Order Header Count]" caption="Fact Sales Order Header Count" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="38"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Bill To Address" uniqueName="[Bill To Address]" caption="Bill To Address"/>
+    <dimension name="Dim Customer" uniqueName="[Dim Customer]" caption="Dim Customer"/>
+    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
+    <dimension name="Dim Time" uniqueName="[Dim Time]" caption="Dim Time"/>
+    <dimension name="Fact Sales Order Header" uniqueName="[Fact Sales Order Header]" caption="Fact Sales Order Header"/>
+    <dimension name="Fact Sales Order Header - Bill To Address" uniqueName="[Fact Sales Order Header - Bill To Address]" caption="Fact Sales Order Header - Bill To Address"/>
+    <dimension name="Fact Sales Order Header - Ship To Address" uniqueName="[Fact Sales Order Header - Ship To Address]" caption="Fact Sales Order Header - Ship To Address"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Ship To Address" uniqueName="[Ship To Address]" caption="Ship To Address"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Fact Sales Order Detail" caption="Fact Sales Order Detail"/>
+    <measureGroup name="Fact Sales Order Header" caption="Fact Sales Order Header"/>
+  </measureGroups>
+  <maps count="14">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="4"/>
+    <map measureGroup="1" dimension="8"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="FERNANDEZ MENDEZ HECTOR" refreshedDate="44618.461678935186" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{739DE310-0D2F-467D-8E6E-BB4D80950B41}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="39">
-    <cacheField name="[Measures].[Fact Sales Order Header Count]" caption="Fact Sales Order Header Count" numFmtId="0" hierarchy="86" level="32767"/>
+    <cacheField name="[Measures].[Fact Sales Order Header Count]" caption="Fact Sales Order Header Count" numFmtId="0" hierarchy="88" level="32767"/>
     <cacheField name="[Dim Customer].[Hierarchy 2].[Sales Person]" caption="Sales Person" numFmtId="0" hierarchy="8" level="1">
       <sharedItems count="8">
         <s v="[Dim Customer].[Hierarchy 2].[Sales Person].&amp;[adventure-works\david8]" c="adventure-works\david8"/>
@@ -296,120 +649,120 @@
     <cacheField name="[Dim Customer].[Hierarchy 2].[Company Name]" caption="Company Name" numFmtId="0" hierarchy="8" level="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Fact Sales Order Header].[Online Order Flag].[Online Order Flag]" caption="Online Order Flag" numFmtId="0" hierarchy="54" level="1">
+    <cacheField name="[Fact Sales Order Header].[Online Order Flag].[Online Order Flag]" caption="Online Order Flag" numFmtId="0" hierarchy="56" level="1">
       <sharedItems count="1">
         <s v="[Fact Sales Order Header].[Online Order Flag].&amp;[False]" c="False"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Fact Sales Order Header].[Status].[Status]" caption="Status" numFmtId="0" hierarchy="58" level="1">
+    <cacheField name="[Fact Sales Order Header].[Status].[Status]" caption="Status" numFmtId="0" hierarchy="60" level="1">
       <sharedItems count="1">
         <s v="[Fact Sales Order Header].[Status].&amp;[5]" c="5"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Year]" caption="Year" numFmtId="0" hierarchy="48" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year]" caption="Half Year" numFmtId="0" hierarchy="48" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter]" caption="Quarter" numFmtId="0" hierarchy="48" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month]" caption="Month" numFmtId="0" hierarchy="48" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days]" caption="Ten Days" numFmtId="0" hierarchy="48" level="5">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date]" caption="Date" numFmtId="0" hierarchy="48" level="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year].[Year]" caption="Year" propertyName="Year" numFmtId="0" hierarchy="48" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter].[Half Year]" caption="Half Year" propertyName="Half Year" numFmtId="0" hierarchy="48" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter].[Half Year Of Year]" caption="Half Year Of Year" propertyName="Half Year Of Year" numFmtId="0" hierarchy="48" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter]" caption="Quarter" propertyName="Quarter" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter Of Half Year]" caption="Quarter Of Half Year" propertyName="Quarter Of Half Year" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter Of Year]" caption="Quarter Of Year" propertyName="Quarter Of Year" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Trimester]" caption="Trimester" propertyName="Trimester" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Trimester Of Year]" caption="Trimester Of Year" propertyName="Trimester Of Year" numFmtId="0" hierarchy="48" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month]" caption="Month" propertyName="Month" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Half Year]" caption="Month Of Half Year" propertyName="Month Of Half Year" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Quarter]" caption="Month Of Quarter" propertyName="Month Of Quarter" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Trimester]" caption="Month Of Trimester" propertyName="Month Of Trimester" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Year]" caption="Month Of Year" propertyName="Month Of Year" numFmtId="0" hierarchy="48" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Half Year]" caption="Day Of Half Year" propertyName="Day Of Half Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Month]" caption="Day Of Month" propertyName="Day Of Month" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Quarter]" caption="Day Of Quarter" propertyName="Day Of Quarter" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Ten Days]" caption="Day Of Ten Days" propertyName="Day Of Ten Days" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Trimester]" caption="Day Of Trimester" propertyName="Day Of Trimester" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Week]" caption="Day Of Week" propertyName="Day Of Week" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Year]" caption="Day Of Year" propertyName="Day Of Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days]" caption="Ten Days" propertyName="Ten Days" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" propertyName="Ten Days Of Half Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Month]" caption="Ten Days Of Month" propertyName="Ten Days Of Month" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" propertyName="Ten Days Of Quarter" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" propertyName="Ten Days Of Trimester" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Year]" caption="Ten Days Of Year" propertyName="Ten Days Of Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Week]" caption="Week" propertyName="Week" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Week Of Year]" caption="Week Of Year" propertyName="Week Of Year" numFmtId="0" hierarchy="48" level="6" memberPropertyField="1">
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Year]" caption="Year" numFmtId="0" hierarchy="50" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year]" caption="Half Year" numFmtId="0" hierarchy="50" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter]" caption="Quarter" numFmtId="0" hierarchy="50" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month]" caption="Month" numFmtId="0" hierarchy="50" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days]" caption="Ten Days" numFmtId="0" hierarchy="50" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date]" caption="Date" numFmtId="0" hierarchy="50" level="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year].[Year]" caption="Year" propertyName="Year" numFmtId="0" hierarchy="50" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter].[Half Year]" caption="Half Year" propertyName="Half Year" numFmtId="0" hierarchy="50" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Quarter].[Half Year Of Year]" caption="Half Year Of Year" propertyName="Half Year Of Year" numFmtId="0" hierarchy="50" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter]" caption="Quarter" propertyName="Quarter" numFmtId="0" hierarchy="50" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter Of Half Year]" caption="Quarter Of Half Year" propertyName="Quarter Of Half Year" numFmtId="0" hierarchy="50" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Quarter Of Year]" caption="Quarter Of Year" propertyName="Quarter Of Year" numFmtId="0" hierarchy="50" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Trimester]" caption="Trimester" propertyName="Trimester" numFmtId="0" hierarchy="50" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Month].[Trimester Of Year]" caption="Trimester Of Year" propertyName="Trimester Of Year" numFmtId="0" hierarchy="50" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month]" caption="Month" propertyName="Month" numFmtId="0" hierarchy="50" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Half Year]" caption="Month Of Half Year" propertyName="Month Of Half Year" numFmtId="0" hierarchy="50" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Quarter]" caption="Month Of Quarter" propertyName="Month Of Quarter" numFmtId="0" hierarchy="50" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Trimester]" caption="Month Of Trimester" propertyName="Month Of Trimester" numFmtId="0" hierarchy="50" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Ten Days].[Month Of Year]" caption="Month Of Year" propertyName="Month Of Year" numFmtId="0" hierarchy="50" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Half Year]" caption="Day Of Half Year" propertyName="Day Of Half Year" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Month]" caption="Day Of Month" propertyName="Day Of Month" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Quarter]" caption="Day Of Quarter" propertyName="Day Of Quarter" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Ten Days]" caption="Day Of Ten Days" propertyName="Day Of Ten Days" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Trimester]" caption="Day Of Trimester" propertyName="Day Of Trimester" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Week]" caption="Day Of Week" propertyName="Day Of Week" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Day Of Year]" caption="Day Of Year" propertyName="Day Of Year" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days]" caption="Ten Days" propertyName="Ten Days" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" propertyName="Ten Days Of Half Year" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Month]" caption="Ten Days Of Month" propertyName="Ten Days Of Month" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" propertyName="Ten Days Of Quarter" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" propertyName="Ten Days Of Trimester" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Ten Days Of Year]" caption="Ten Days Of Year" propertyName="Ten Days Of Year" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Week]" caption="Week" propertyName="Week" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Date].[Week Of Year]" caption="Week Of Year" propertyName="Week Of Year" numFmtId="0" hierarchy="50" level="6" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="87">
+  <cacheHierarchies count="89">
     <cacheHierarchy uniqueName="[Bill To Address].[Address ID]" caption="Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Bill To Address].[Address ID].[All]" allUniqueName="[Bill To Address].[Address ID].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Bill To Address].[City]" caption="Bill To Address.City" attribute="1" defaultMemberUniqueName="[Bill To Address].[City].[All]" allUniqueName="[Bill To Address].[City].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Bill To Address].[Country Region]" caption="Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Bill To Address].[Country Region].[All]" allUniqueName="[Bill To Address].[Country Region].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
@@ -427,9 +780,11 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim Customer].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[Dim Customer].[Sales Person].[All]" allUniqueName="[Dim Customer].[Sales Person].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[Dim Product].[Color].[All]" allUniqueName="[Dim Product].[Color].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Estratificacion List Price]" caption="Estratificacion List Price" attribute="1" defaultMemberUniqueName="[Dim Product].[Estratificacion List Price].[All]" allUniqueName="[Dim Product].[Estratificacion List Price].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Dim Product].[Hierarchy 1].[All]" allUniqueName="[Dim Product].[Hierarchy 1].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Product].[Hierarchy 2].[All]" allUniqueName="[Dim Product].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 3]" caption="Hierarchy 3" defaultMemberUniqueName="[Dim Product].[Hierarchy 3].[All]" allUniqueName="[Dim Product].[Hierarchy 3].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Name].[All]" allUniqueName="[Dim Product].[Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Parent Product Category Name]" caption="Parent Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Parent Product Category Name].[All]" allUniqueName="[Dim Product].[Parent Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Product Category Name]" caption="Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Category Name].[All]" allUniqueName="[Dim Product].[Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
@@ -544,7 +899,7 @@
     <measureGroup name="Fact Sales Order Detail" caption="Fact Sales Order Detail"/>
     <measureGroup name="Fact Sales Order Header" caption="Fact Sales Order Header"/>
   </measureGroups>
-  <maps count="13">
+  <maps count="14">
     <map measureGroup="0" dimension="0"/>
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="0" dimension="2"/>
@@ -555,315 +910,7 @@
     <map measureGroup="0" dimension="8"/>
     <map measureGroup="1" dimension="0"/>
     <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="4"/>
-    <map measureGroup="1" dimension="8"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="FERNANDEZ MENDEZ HECTOR" refreshedDate="44611.438538425929" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3333F28C-3842-4000-AF40-3F7B906893C9}">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="39">
-    <cacheField name="[Bill To Address].[Hierarchy].[Country Region]" caption="Country Region" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="3">
-        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada]" c="Canada"/>
-        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[United Kingdom]" c="United Kingdom"/>
-        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[United States]" c="United States"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Bill To Address].[Hierarchy].[State Province]" caption="State Province" numFmtId="0" hierarchy="3" level="2">
-      <sharedItems count="4">
-        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada].&amp;[Alberta]" c="Alberta"/>
-        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada].&amp;[British Columbia]" c="British Columbia"/>
-        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada].&amp;[Ontario]" c="Ontario"/>
-        <s v="[Bill To Address].[Hierarchy].[Country Region].&amp;[Canada].&amp;[Quebec]" c="Quebec"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Bill To Address].[Hierarchy].[City]" caption="City" numFmtId="0" hierarchy="3" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Measures].[Order Qty]" caption="Order Qty" numFmtId="0" hierarchy="77" level="32767"/>
-    <cacheField name="[Dim Product].[Hierarchy 2].[Color]" caption="Color" numFmtId="0" hierarchy="13" level="1">
-      <sharedItems count="9">
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[]" c=""/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Black]" c="Black"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue]" c="Blue"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Multi]" c="Multi"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Red]" c="Red"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Silver]" c="Silver"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Silver/Black]" c="Silver/Black"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[White]" c="White"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Yellow]" c="Yellow"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Product].[Hierarchy 2].[Parent Product Category Name]" caption="Parent Product Category Name" numFmtId="0" hierarchy="13" level="2">
-      <sharedItems count="4">
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Accessories]" c="Accessories"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes]" c="Bikes"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Clothing]" c="Clothing"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Components]" c="Components"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Product].[Hierarchy 2].[Product Model Name]" caption="Product Model Name" numFmtId="0" hierarchy="13" level="3">
-      <sharedItems count="3">
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-1000]" c="Touring-1000"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000]" c="Touring-2000"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-3000]" c="Touring-3000"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Product].[Hierarchy 2].[Name]" caption="Name" numFmtId="0" hierarchy="13" level="4">
-      <sharedItems count="4">
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 46]" c="Touring-2000 Blue, 46"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 50]" c="Touring-2000 Blue, 50"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 54]" c="Touring-2000 Blue, 54"/>
-        <s v="[Dim Product].[Hierarchy 2].[Color].&amp;[Blue].&amp;[Bikes].&amp;[Touring-2000].&amp;[Touring-2000 Blue, 60]" c="Touring-2000 Blue, 60"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Year]" caption="Year" numFmtId="0" hierarchy="49" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester]" caption="Trimester" numFmtId="0" hierarchy="49" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month]" caption="Month" numFmtId="0" hierarchy="49" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days]" caption="Ten Days" numFmtId="0" hierarchy="49" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date]" caption="Date" numFmtId="0" hierarchy="49" level="5">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester].[Year]" caption="Year" propertyName="Year" numFmtId="0" hierarchy="49" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter]" caption="Quarter" propertyName="Quarter" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter Of Half Year]" caption="Quarter Of Half Year" propertyName="Quarter Of Half Year" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Quarter Of Year]" caption="Quarter Of Year" propertyName="Quarter Of Year" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Trimester]" caption="Trimester" propertyName="Trimester" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Month].[Trimester Of Year]" caption="Trimester Of Year" propertyName="Trimester Of Year" numFmtId="0" hierarchy="49" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month]" caption="Month" propertyName="Month" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Half Year]" caption="Month Of Half Year" propertyName="Month Of Half Year" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Quarter]" caption="Month Of Quarter" propertyName="Month Of Quarter" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Trimester]" caption="Month Of Trimester" propertyName="Month Of Trimester" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Ten Days].[Month Of Year]" caption="Month Of Year" propertyName="Month Of Year" numFmtId="0" hierarchy="49" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Half Year]" caption="Day Of Half Year" propertyName="Day Of Half Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Month]" caption="Day Of Month" propertyName="Day Of Month" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Quarter]" caption="Day Of Quarter" propertyName="Day Of Quarter" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Ten Days]" caption="Day Of Ten Days" propertyName="Day Of Ten Days" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Trimester]" caption="Day Of Trimester" propertyName="Day Of Trimester" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Week]" caption="Day Of Week" propertyName="Day Of Week" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Day Of Year]" caption="Day Of Year" propertyName="Day Of Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days]" caption="Ten Days" propertyName="Ten Days" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" propertyName="Ten Days Of Half Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Month]" caption="Ten Days Of Month" propertyName="Ten Days Of Month" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" propertyName="Ten Days Of Quarter" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" propertyName="Ten Days Of Trimester" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Ten Days Of Year]" caption="Ten Days Of Year" propertyName="Ten Days Of Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Week]" caption="Week" propertyName="Week" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Date].[Week Of Year]" caption="Week Of Year" propertyName="Week Of Year" numFmtId="0" hierarchy="49" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="87">
-    <cacheHierarchy uniqueName="[Bill To Address].[Address ID]" caption="Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Bill To Address].[Address ID].[All]" allUniqueName="[Bill To Address].[Address ID].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Bill To Address].[City]" caption="Bill To Address.City" attribute="1" defaultMemberUniqueName="[Bill To Address].[City].[All]" allUniqueName="[Bill To Address].[City].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Bill To Address].[Country Region]" caption="Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Bill To Address].[Country Region].[All]" allUniqueName="[Bill To Address].[Country Region].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Bill To Address].[Hierarchy]" caption="Bill To Address.Hierarchy" defaultMemberUniqueName="[Bill To Address].[Hierarchy].[All]" allUniqueName="[Bill To Address].[Hierarchy].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Bill To Address].[State Province]" caption="Bill To Address.State Province" attribute="1" defaultMemberUniqueName="[Bill To Address].[State Province].[All]" allUniqueName="[Bill To Address].[State Province].[All]" dimensionUniqueName="[Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Company Name]" caption="Company Name" attribute="1" defaultMemberUniqueName="[Dim Customer].[Company Name].[All]" allUniqueName="[Dim Customer].[Company Name].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer].[Customer ID].[All]" allUniqueName="[Dim Customer].[Customer ID].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Full Name]" caption="Full Name" attribute="1" defaultMemberUniqueName="[Dim Customer].[Full Name].[All]" allUniqueName="[Dim Customer].[Full Name].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Customer].[Hierarchy 2].[All]" allUniqueName="[Dim Customer].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Sales Person]" caption="Sales Person" attribute="1" defaultMemberUniqueName="[Dim Customer].[Sales Person].[All]" allUniqueName="[Dim Customer].[Sales Person].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[Dim Product].[Color].[All]" allUniqueName="[Dim Product].[Color].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Dim Product].[Hierarchy 1].[All]" allUniqueName="[Dim Product].[Hierarchy 1].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="4" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Dim Product].[Hierarchy 2].[All]" allUniqueName="[Dim Product].[Hierarchy 2].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
-        <fieldUsage x="6"/>
-        <fieldUsage x="7"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Name].[All]" allUniqueName="[Dim Product].[Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Parent Product Category Name]" caption="Parent Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Parent Product Category Name].[All]" allUniqueName="[Dim Product].[Parent Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Category Name]" caption="Product Category Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Category Name].[All]" allUniqueName="[Dim Product].[Product Category Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product ID].[All]" allUniqueName="[Dim Product].[Product ID].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Model Name]" caption="Product Model Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Model Name].[All]" allUniqueName="[Dim Product].[Product Model Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Date]" caption="Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Dim Time].[Date].[All]" allUniqueName="[Dim Time].[Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Day Of Half Year]" caption="Day Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Half Year].[All]" allUniqueName="[Dim Time].[Day Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Day Of Month]" caption="Day Of Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Month].[All]" allUniqueName="[Dim Time].[Day Of Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Day Of Quarter]" caption="Day Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Quarter].[All]" allUniqueName="[Dim Time].[Day Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Day Of Ten Days]" caption="Day Of Ten Days" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Ten Days].[All]" allUniqueName="[Dim Time].[Day Of Ten Days].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Day Of Trimester]" caption="Day Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Trimester].[All]" allUniqueName="[Dim Time].[Day Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Day Of Week]" caption="Day Of Week" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Week].[All]" allUniqueName="[Dim Time].[Day Of Week].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Day Of Year]" caption="Day Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Day Of Year].[All]" allUniqueName="[Dim Time].[Day Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Half Year]" caption="Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Half Year].[All]" allUniqueName="[Dim Time].[Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Half Year Of Year]" caption="Half Year Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Half Year Of Year].[All]" allUniqueName="[Dim Time].[Half Year Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Month]" caption="Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month].[All]" allUniqueName="[Dim Time].[Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Month Of Half Year]" caption="Month Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Half Year].[All]" allUniqueName="[Dim Time].[Month Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Month Of Quarter]" caption="Month Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Quarter].[All]" allUniqueName="[Dim Time].[Month Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Month Of Trimester]" caption="Month Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Trimester].[All]" allUniqueName="[Dim Time].[Month Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Month Of Year]" caption="Month Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Month Of Year].[All]" allUniqueName="[Dim Time].[Month Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Quarter]" caption="Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter].[All]" allUniqueName="[Dim Time].[Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Quarter Of Half Year]" caption="Quarter Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter Of Half Year].[All]" allUniqueName="[Dim Time].[Quarter Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Quarter Of Year]" caption="Quarter Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Quarter Of Year].[All]" allUniqueName="[Dim Time].[Quarter Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Ten Days]" caption="Ten Days" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days].[All]" allUniqueName="[Dim Time].[Ten Days].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Half Year]" caption="Ten Days Of Half Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Half Year].[All]" allUniqueName="[Dim Time].[Ten Days Of Half Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Month]" caption="Ten Days Of Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Month].[All]" allUniqueName="[Dim Time].[Ten Days Of Month].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Quarter]" caption="Ten Days Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Quarter].[All]" allUniqueName="[Dim Time].[Ten Days Of Quarter].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Trimester]" caption="Ten Days Of Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Trimester].[All]" allUniqueName="[Dim Time].[Ten Days Of Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Ten Days Of Year]" caption="Ten Days Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Ten Days Of Year].[All]" allUniqueName="[Dim Time].[Ten Days Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Trimester]" caption="Trimester" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Trimester].[All]" allUniqueName="[Dim Time].[Trimester].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Trimester Of Year]" caption="Trimester Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Trimester Of Year].[All]" allUniqueName="[Dim Time].[Trimester Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Week]" caption="Week" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Week].[All]" allUniqueName="[Dim Time].[Week].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Week Of Year]" caption="Week Of Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Week Of Year].[All]" allUniqueName="[Dim Time].[Week Of Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Year]" caption="Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Time].[Year].[All]" allUniqueName="[Dim Time].[Year].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date]" caption="Year -  Half Year -  Quarter -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date]" caption="Year -  Trimester -  Month -  Ten Days -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[All]" allUniqueName="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="6" unbalanced="0">
-      <fieldsUsage count="6">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="8"/>
-        <fieldUsage x="9"/>
-        <fieldUsage x="10"/>
-        <fieldUsage x="11"/>
-        <fieldUsage x="12"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Time].[Year -  Week -  Date]" caption="Year -  Week -  Date" time="1" defaultMemberUniqueName="[Dim Time].[Year -  Week -  Date].[All]" allUniqueName="[Dim Time].[Year -  Week -  Date].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 1]" caption="Hierarchy 1" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 1].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Hierarchy 2]" caption="Hierarchy 2" defaultMemberUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" allUniqueName="[Fact Sales Order Header].[Hierarchy 2].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Online Order Flag]" caption="Online Order Flag" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" allUniqueName="[Fact Sales Order Header].[Online Order Flag].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Order Date]" caption="Order Date" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Order Date].[All]" allUniqueName="[Fact Sales Order Header].[Order Date].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Sales Order ID]" caption="Sales Order ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Sales Order ID].[All]" allUniqueName="[Fact Sales Order Header].[Sales Order ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship Method]" caption="Ship Method" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship Method].[All]" allUniqueName="[Fact Sales Order Header].[Ship Method].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Status].[All]" allUniqueName="[Fact Sales Order Header].[Status].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Address ID]" caption="Fact Sales Order Header - Bill To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Address ID].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[City]" caption="Fact Sales Order Header - Bill To Address.City" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[City].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[City].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Country Region]" caption="Fact Sales Order Header - Bill To Address.Country Region" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Country Region].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Country Region].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy]" caption="Fact Sales Order Header - Bill To Address.Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Bill To Address].[State Province]" caption="Fact Sales Order Header - Bill To Address.State Province" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Bill To Address].[State Province].[All]" allUniqueName="[Fact Sales Order Header - Bill To Address].[State Province].[All]" dimensionUniqueName="[Fact Sales Order Header - Bill To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Address ID]" caption="Fact Sales Order Header - Ship To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Address ID].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[City]" caption="Fact Sales Order Header - Ship To Address.City" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[City].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[City].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Country Region]" caption="Fact Sales Order Header - Ship To Address.Country Region" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Country Region].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Country Region].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy]" caption="Fact Sales Order Header - Ship To Address.Hierarchy" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[Hierarchy].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header - Ship To Address].[State Province]" caption="Fact Sales Order Header - Ship To Address.State Province" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header - Ship To Address].[State Province].[All]" allUniqueName="[Fact Sales Order Header - Ship To Address].[State Province].[All]" dimensionUniqueName="[Fact Sales Order Header - Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship To Address].[Address ID]" caption="Ship To Address.Address ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Ship To Address].[Address ID].[All]" allUniqueName="[Ship To Address].[Address ID].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship To Address].[City]" caption="Ship To Address.City" attribute="1" defaultMemberUniqueName="[Ship To Address].[City].[All]" allUniqueName="[Ship To Address].[City].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship To Address].[Country Region]" caption="Ship To Address.Country Region" attribute="1" defaultMemberUniqueName="[Ship To Address].[Country Region].[All]" allUniqueName="[Ship To Address].[Country Region].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship To Address].[Hierarchy]" caption="Ship To Address.Hierarchy" defaultMemberUniqueName="[Ship To Address].[Hierarchy].[All]" allUniqueName="[Ship To Address].[Hierarchy].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship To Address].[State Province]" caption="Ship To Address.State Province" attribute="1" defaultMemberUniqueName="[Ship To Address].[State Province].[All]" allUniqueName="[Ship To Address].[State Province].[All]" dimensionUniqueName="[Ship To Address]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Bill To Address ID]" caption="Bill To Address ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Bill To Address ID].[All]" allUniqueName="[Fact Sales Order Header].[Bill To Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Customer ID].[All]" allUniqueName="[Fact Sales Order Header].[Customer ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Fact Sales Order Header].[Ship To Address ID]" caption="Ship To Address ID" attribute="1" defaultMemberUniqueName="[Fact Sales Order Header].[Ship To Address ID].[All]" allUniqueName="[Fact Sales Order Header].[Ship To Address ID].[All]" dimensionUniqueName="[Fact Sales Order Header]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Unit Price]" caption="Unit Price" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Unit Price Discount]" caption="Unit Price Discount" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fact Sales Order Detail Count]" caption="Fact Sales Order Detail Count" measure="1" displayFolder="" measureGroup="Fact Sales Order Detail" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sub Total]" caption="Sub Total" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Tax Amt]" caption="Tax Amt" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Freight]" caption="Freight" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Due]" caption="Total Due" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fact Sales Order Header Count]" caption="Fact Sales Order Header Count" measure="1" displayFolder="" measureGroup="Fact Sales Order Header" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Bill To Address" uniqueName="[Bill To Address]" caption="Bill To Address"/>
-    <dimension name="Dim Customer" uniqueName="[Dim Customer]" caption="Dim Customer"/>
-    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
-    <dimension name="Dim Time" uniqueName="[Dim Time]" caption="Dim Time"/>
-    <dimension name="Fact Sales Order Header" uniqueName="[Fact Sales Order Header]" caption="Fact Sales Order Header"/>
-    <dimension name="Fact Sales Order Header - Bill To Address" uniqueName="[Fact Sales Order Header - Bill To Address]" caption="Fact Sales Order Header - Bill To Address"/>
-    <dimension name="Fact Sales Order Header - Ship To Address" uniqueName="[Fact Sales Order Header - Ship To Address]" caption="Fact Sales Order Header - Ship To Address"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Ship To Address" uniqueName="[Ship To Address]" caption="Ship To Address"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Fact Sales Order Detail" caption="Fact Sales Order Detail"/>
-    <measureGroup name="Fact Sales Order Header" caption="Fact Sales Order Header"/>
-  </measureGroups>
-  <maps count="13">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
     <map measureGroup="1" dimension="3"/>
     <map measureGroup="1" dimension="4"/>
     <map measureGroup="1" dimension="8"/>
@@ -877,7 +924,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F707DBB-AE71-44DF-9E73-7F6F57457DAF}" name="PivotTable1" cacheId="260" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F707DBB-AE71-44DF-9E73-7F6F57457DAF}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="D3:F14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="39">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -985,12 +1032,14 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="5" hier="48" name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year].&amp;[2011-07-01T00:00:00]" cap="Semester 2, 2011"/>
+    <pageField fld="5" hier="50" name="[Dim Time].[Year -  Half Year -  Quarter -  Month -  Ten Days -  Date].[Half Year].&amp;[2011-07-01T00:00:00]" cap="Semester 2, 2011"/>
   </pageFields>
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="87">
+  <pivotHierarchies count="89">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -1115,8 +1164,8 @@
     <rowHierarchyUsage hierarchyUsage="8"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="2">
-    <colHierarchyUsage hierarchyUsage="54"/>
-    <colHierarchyUsage hierarchyUsage="58"/>
+    <colHierarchyUsage hierarchyUsage="56"/>
+    <colHierarchyUsage hierarchyUsage="60"/>
   </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1130,27 +1179,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CF3CA0F-072C-41E0-895B-51371BB6E34F}" name="PivotTable1" cacheId="326" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="D5:H27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CF3CA0F-072C-41E0-895B-51371BB6E34F}" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="D5:V33" firstHeaderRow="1" firstDataRow="5" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="39">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="3">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="4">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3" d="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="9">
         <item c="1" x="0"/>
         <item c="1" x="1"/>
@@ -1163,7 +1195,7 @@
         <item c="1" x="8"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="4">
         <item c="1" x="0"/>
         <item c="1" x="1" d="1"/>
@@ -1171,14 +1203,14 @@
         <item c="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="3">
         <item c="1" x="0"/>
         <item c="1" x="1" d="1"/>
         <item c="1" x="2"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -1217,36 +1249,145 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="9">
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1" d="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
+        <item c="1" x="4"/>
+        <item c="1" x="5"/>
+        <item c="1" x="6"/>
+        <item c="1" x="7"/>
+        <item c="1" x="8"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="4">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2" d="1"/>
+        <item c="1" x="3" d="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="4">
-    <field x="4"/>
-    <field x="5"/>
-    <field x="6"/>
-    <field x="7"/>
+  <rowFields count="3">
+    <field x="35"/>
+    <field x="36"/>
+    <field x="37"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="24">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="4">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
+  </colFields>
+  <colItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="2">
       <x/>
     </i>
     <i r="2">
       <x v="1"/>
-    </i>
-    <i r="3">
       <x/>
     </i>
     <i r="3">
@@ -1288,31 +1429,16 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="8" hier="49" name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester].&amp;[2014-05-01T00:00:00]" cap="Trimester 2, 2014"/>
+    <pageField fld="4" hier="51" name="[Dim Time].[Year -  Trimester -  Month -  Ten Days -  Date].[Trimester].&amp;[2014-05-01T00:00:00]" cap="Trimester 2, 2014"/>
   </pageFields>
   <dataFields count="1">
-    <dataField fld="3" baseField="0" baseItem="0"/>
+    <dataField fld="38" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="87">
+  <pivotHierarchies count="89">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -1364,6 +1490,10 @@
     <pivotHierarchy/>
     <pivotHierarchy>
       <mps count="26">
+        <mp field="9"/>
+        <mp field="10"/>
+        <mp field="11"/>
+        <mp field="12"/>
         <mp field="13"/>
         <mp field="14"/>
         <mp field="15"/>
@@ -1386,10 +1516,6 @@
         <mp field="32"/>
         <mp field="33"/>
         <mp field="34"/>
-        <mp field="35"/>
-        <mp field="36"/>
-        <mp field="37"/>
-        <mp field="38"/>
       </mps>
     </pivotHierarchy>
     <pivotHierarchy/>
@@ -1432,10 +1558,10 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
+    <rowHierarchyUsage hierarchyUsage="15"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="3"/>
+    <colHierarchyUsage hierarchyUsage="14"/>
   </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1762,23 +1888,23 @@
   <sheetData>
     <row r="1" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" vm="1">
         <v>28</v>
-      </c>
-      <c r="E1" t="s" vm="1">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -1789,12 +1915,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>23</v>
@@ -1805,7 +1931,7 @@
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>28</v>
@@ -1816,7 +1942,7 @@
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>56</v>
@@ -1827,7 +1953,7 @@
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>52</v>
@@ -1838,7 +1964,7 @@
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>28</v>
@@ -1849,7 +1975,7 @@
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1">
         <v>13</v>
@@ -1860,7 +1986,7 @@
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1">
         <v>21</v>
@@ -1871,7 +1997,7 @@
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1">
         <v>47</v>
@@ -1899,55 +2025,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FF3425-DC3E-465E-886D-6E518F83569D}">
-  <dimension ref="D3:H27"/>
+  <dimension ref="D3:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
     <col min="45" max="49" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="50" max="55" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="18.6328125" bestFit="1" customWidth="1"/>
@@ -2073,373 +2196,778 @@
     <col min="301" max="301" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s" vm="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D7" s="3" t="s">
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
-        <v>241</v>
-      </c>
-      <c r="F7" s="1">
-        <v>152</v>
-      </c>
-      <c r="G7" s="1">
-        <v>463</v>
-      </c>
-      <c r="H7" s="1">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>492</v>
-      </c>
-      <c r="F8" s="1">
-        <v>306</v>
-      </c>
-      <c r="G8" s="1">
-        <v>903</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
-        <v>68</v>
-      </c>
-      <c r="H10" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>76</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D12" s="5" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1">
-        <v>98</v>
-      </c>
-      <c r="H12" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>73</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>16</v>
+      </c>
+      <c r="L26" s="1">
+        <v>17</v>
+      </c>
+      <c r="M26" s="1">
+        <v>21</v>
+      </c>
+      <c r="N26" s="1">
+        <v>31</v>
+      </c>
+      <c r="O26" s="1">
+        <v>18</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1">
+        <v>29</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1">
+        <v>50</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1">
+        <v>48</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1">
+        <v>23</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1">
+        <v>77</v>
+      </c>
+      <c r="V32" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>76</v>
+      </c>
+      <c r="F33" s="1">
+        <v>79</v>
+      </c>
+      <c r="G33" s="1">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D15" s="6" t="s">
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1">
-        <v>28</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="K33" s="1">
+        <v>16</v>
+      </c>
+      <c r="L33" s="1">
+        <v>17</v>
+      </c>
+      <c r="M33" s="1">
+        <v>21</v>
+      </c>
+      <c r="N33" s="1">
+        <v>31</v>
+      </c>
+      <c r="O33" s="1">
+        <v>18</v>
+      </c>
+      <c r="P33" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>29</v>
+      </c>
+      <c r="R33" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>21</v>
-      </c>
-      <c r="H17" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1">
-        <v>27</v>
-      </c>
-      <c r="G18" s="1">
-        <v>88</v>
-      </c>
-      <c r="H18" s="1">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="1">
-        <v>125</v>
-      </c>
-      <c r="F19" s="1">
-        <v>67</v>
-      </c>
-      <c r="G19" s="1">
-        <v>157</v>
-      </c>
-      <c r="H19" s="1">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="1">
-        <v>58</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1">
-        <v>68</v>
-      </c>
-      <c r="H20" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <v>120</v>
-      </c>
-      <c r="F21" s="1">
-        <v>54</v>
-      </c>
-      <c r="G21" s="1">
-        <v>180</v>
-      </c>
-      <c r="H21" s="1">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1">
-        <v>27</v>
-      </c>
-      <c r="G22" s="1">
-        <v>57</v>
-      </c>
-      <c r="H22" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1">
-        <v>282</v>
-      </c>
-      <c r="F23" s="1">
-        <v>172</v>
-      </c>
-      <c r="G23" s="1">
-        <v>697</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1">
-        <v>72</v>
-      </c>
-      <c r="F24" s="1">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1">
-        <v>172</v>
-      </c>
-      <c r="H24" s="1">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1">
-        <v>67</v>
-      </c>
-      <c r="F25" s="1">
-        <v>16</v>
-      </c>
-      <c r="G25" s="1">
-        <v>142</v>
-      </c>
-      <c r="H25" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1">
-        <v>345</v>
-      </c>
-      <c r="F26" s="1">
-        <v>227</v>
-      </c>
-      <c r="G26" s="1">
-        <v>669</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1172</v>
-      </c>
-      <c r="G27" s="1">
-        <v>3831</v>
-      </c>
-      <c r="H27" s="1">
-        <v>7021</v>
+      <c r="S33" s="1">
+        <v>48</v>
+      </c>
+      <c r="T33" s="1">
+        <v>23</v>
+      </c>
+      <c r="U33" s="1">
+        <v>77</v>
+      </c>
+      <c r="V33" s="1">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>